--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2A\Desktop\ゲーム制作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2A\Desktop\teamproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="154">
   <si>
     <t>仕様書書くこと一覧</t>
     <rPh sb="0" eb="3">
@@ -1638,46 +1638,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーの詳細ステータス</t>
-    <rPh sb="6" eb="8">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>操作方法</t>
-    <rPh sb="0" eb="4">
-      <t>ソウサホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>再開</t>
-    <rPh sb="0" eb="2">
-      <t>サイカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージ終了</t>
-    <rPh sb="4" eb="6">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タスク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アクティブ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パッシブ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ポーズ画面(仮)</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
@@ -1706,12 +1666,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設置棘</t>
+    <t>ギミック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破壊可能オブジェクト</t>
+    <rPh sb="0" eb="4">
+      <t>ハカイカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝箱</t>
     <rPh sb="0" eb="2">
-      <t>セッチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>トゲ</t>
+      <t>タカラバコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆発物</t>
+    <rPh sb="0" eb="3">
+      <t>バクハツブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落下アイテム</t>
+    <rPh sb="0" eb="2">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扉</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1720,45 +1709,127 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>扉</t>
-    <rPh sb="0" eb="1">
-      <t>トビラ</t>
+    <t>設置棘</t>
+    <rPh sb="0" eb="2">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トゲ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>落下アイテム</t>
-    <rPh sb="0" eb="2">
-      <t>ラッカ</t>
+    <t>プレイヤーの攻撃で
+破壊することができる</t>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>爆発物</t>
-    <rPh sb="0" eb="3">
-      <t>バクハツブツ</t>
+    <t>プレイヤーの攻撃で
+開けることができる</t>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>宝箱</t>
+    <t>攻撃を当てると爆発する</t>
     <rPh sb="0" eb="2">
-      <t>タカラバコ</t>
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バクハツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>破壊可能オブジェ</t>
-    <rPh sb="0" eb="2">
-      <t>ハカイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カノウ</t>
-    </rPh>
+    <t>敵からドロップする
+回復アイテムなどが落ちる</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扉を開けることで
+ステージを開放できる</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの攻撃で
+起動することができる
+扉を開けたりできる</t>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そこらへんに設置されている
+当たるとダメージを食らう</t>
+    <rPh sb="6" eb="8">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ギミック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1766,7 +1837,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1917,8 +1988,33 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1958,12 +2054,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2372,7 +2462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2403,24 +2493,249 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2430,6 +2745,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2439,6 +2763,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2448,24 +2781,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2475,137 +2790,59 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2631,6 +2868,15 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2640,15 +2886,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2667,12 +2904,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2682,6 +2913,15 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2691,15 +2931,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2709,6 +2940,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2730,152 +2964,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5031,6 +5169,401 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="楕円 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8134350" y="1114425"/>
+          <a:ext cx="180975" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="楕円 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7867650" y="1581150"/>
+          <a:ext cx="771525" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="楕円 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533525" y="1924050"/>
+          <a:ext cx="400050" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8029575" y="2438400"/>
+          <a:ext cx="400050" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="楕円 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8096250" y="3000375"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="楕円 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="2428875"/>
+          <a:ext cx="523875" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="楕円 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="3429000"/>
+          <a:ext cx="523875" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -10371,8 +10904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10579,26 +11112,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="129"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="132"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="129"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -10609,10 +11142,10 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="128"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="129"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -10623,10 +11156,10 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="128"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="129"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -10637,10 +11170,10 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="128"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="129"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -10651,10 +11184,10 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="128"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="129"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -10665,10 +11198,10 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="128"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="129"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -10679,10 +11212,10 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="128"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="129"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -10693,10 +11226,10 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="128"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="129"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -10707,10 +11240,10 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="128"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="129"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -10721,10 +11254,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="128"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="129"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -10735,10 +11268,10 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="128"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="129"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -10749,10 +11282,10 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="128"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="129"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -10763,10 +11296,10 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="128"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="129"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -10777,10 +11310,10 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="128"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="129"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -10791,10 +11324,10 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="128"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="129"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -10805,10 +11338,10 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="128"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="129"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -10819,10 +11352,10 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="128"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="129"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -10833,10 +11366,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="128"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="129"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -10847,10 +11380,10 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="128"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="129"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -10861,10 +11394,10 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="128"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="129"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -10875,10 +11408,10 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="128"/>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="129"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -10889,10 +11422,10 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="128"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="129"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -10903,10 +11436,10 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="128"/>
+      <c r="L24" s="21"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="129"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -10917,10 +11450,10 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="128"/>
+      <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="129"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -10931,10 +11464,10 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="128"/>
+      <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="129"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -10945,10 +11478,10 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="128"/>
+      <c r="L27" s="21"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="129"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -10959,10 +11492,10 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="128"/>
+      <c r="L28" s="21"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="129"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -10973,10 +11506,10 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="128"/>
+      <c r="L29" s="21"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="129"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -10987,10 +11520,10 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="128"/>
+      <c r="L30" s="21"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="129"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -11001,10 +11534,10 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="128"/>
+      <c r="L31" s="21"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="129"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -11015,21 +11548,21 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="128"/>
+      <c r="L32" s="21"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="127"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="125"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -11050,43 +11583,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="99.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="135"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="134" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="132"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="25"/>
     </row>
     <row r="3" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="129"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="131"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -11100,16 +11633,16 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="128"/>
+      <c r="U3" s="21"/>
     </row>
     <row r="4" spans="1:21" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="129"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="130" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="23" t="s">
         <v>110</v>
       </c>
       <c r="H4" s="3"/>
@@ -11125,16 +11658,16 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="128"/>
+      <c r="U4" s="21"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A5" s="129"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="129"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -11148,16 +11681,16 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="128"/>
+      <c r="U5" s="21"/>
     </row>
     <row r="6" spans="1:21" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="129"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="130" t="s">
+      <c r="F6" s="21"/>
+      <c r="G6" s="23" t="s">
         <v>109</v>
       </c>
       <c r="H6" s="3"/>
@@ -11173,16 +11706,16 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="128"/>
+      <c r="U6" s="21"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A7" s="129"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="129"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -11196,16 +11729,16 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="128"/>
+      <c r="U7" s="21"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A8" s="129"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="129"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -11219,16 +11752,16 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="128"/>
+      <c r="U8" s="21"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A9" s="129"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="129"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -11242,16 +11775,16 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="128"/>
+      <c r="U9" s="21"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A10" s="129"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="129"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -11265,16 +11798,16 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="128"/>
+      <c r="U10" s="21"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A11" s="129"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="129"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -11288,16 +11821,16 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="128"/>
+      <c r="U11" s="21"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A12" s="129"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="129"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -11311,16 +11844,16 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="128"/>
+      <c r="U12" s="21"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A13" s="129"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="129"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -11334,16 +11867,16 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="128"/>
+      <c r="U13" s="21"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A14" s="129"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="129"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -11357,16 +11890,16 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="128"/>
+      <c r="U14" s="21"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A15" s="129"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="129"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -11380,16 +11913,16 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="128"/>
+      <c r="U15" s="21"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A16" s="129"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="129"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -11403,16 +11936,16 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="128"/>
+      <c r="U16" s="21"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A17" s="129"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="129"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -11426,16 +11959,16 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="128"/>
+      <c r="U17" s="21"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A18" s="129"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="129"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -11449,16 +11982,16 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="128"/>
+      <c r="U18" s="21"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A19" s="129"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="129"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -11472,16 +12005,16 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="128"/>
+      <c r="U19" s="21"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A20" s="129"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="129"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -11495,16 +12028,16 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="128"/>
+      <c r="U20" s="21"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A21" s="129"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="129"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -11518,16 +12051,16 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="128"/>
+      <c r="U21" s="21"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A22" s="129"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="129"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -11541,16 +12074,16 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="128"/>
+      <c r="U22" s="21"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A23" s="129"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="129"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -11564,16 +12097,16 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="128"/>
+      <c r="U23" s="21"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A24" s="129"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="129"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -11587,16 +12120,16 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="128"/>
+      <c r="U24" s="21"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A25" s="129"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="129"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -11610,16 +12143,16 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="128"/>
+      <c r="U25" s="21"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A26" s="129"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="129"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -11633,30 +12166,30 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="128"/>
+      <c r="U26" s="21"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A27" s="127"/>
-      <c r="B27" s="126"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="126"/>
-      <c r="T27" s="126"/>
-      <c r="U27" s="125"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -11675,22 +12208,22 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="79"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="128"/>
     </row>
     <row r="2" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="112"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="114"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11712,682 +12245,692 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="79"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="128"/>
     </row>
     <row r="2" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="131"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="115" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="12"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="56"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="61"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="34" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="12"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="55"/>
     </row>
     <row r="6" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="15"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="58"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="45" t="s">
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="15"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="58"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="15"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="58"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="15"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="58"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="15"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="58"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="34" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="15"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="58"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="15"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="58"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="45" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="15"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="58"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="15"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="58"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="15"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="58"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="15"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="58"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="34" t="s">
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="15"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="58"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="15"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="58"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="45" t="s">
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="15"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="58"/>
     </row>
     <row r="20" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="15"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="58"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="15"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="58"/>
     </row>
     <row r="22" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I22" s="54"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="15"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="58"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="15"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="58"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="15"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="58"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="15"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="58"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="15"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="58"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="15"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="58"/>
     </row>
     <row r="28" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="15"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="58"/>
     </row>
     <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="34" t="s">
+      <c r="I29" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="15"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="58"/>
     </row>
     <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="15"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="58"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="15"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="58"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="I32" s="13"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="15"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="58"/>
     </row>
     <row r="33" spans="9:17" x14ac:dyDescent="0.4">
-      <c r="I33" s="13"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="15"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="58"/>
     </row>
     <row r="34" spans="9:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I34" s="54"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="15"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="58"/>
     </row>
     <row r="35" spans="9:17" x14ac:dyDescent="0.4">
-      <c r="I35" s="34" t="s">
+      <c r="I35" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="15"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="58"/>
     </row>
     <row r="36" spans="9:17" x14ac:dyDescent="0.4">
-      <c r="I36" s="61"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="15"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="58"/>
     </row>
     <row r="37" spans="9:17" x14ac:dyDescent="0.4">
-      <c r="I37" s="45" t="s">
+      <c r="I37" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="15"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="58"/>
     </row>
     <row r="38" spans="9:17" x14ac:dyDescent="0.4">
-      <c r="I38" s="13"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="15"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="58"/>
     </row>
     <row r="39" spans="9:17" x14ac:dyDescent="0.4">
-      <c r="I39" s="13"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="15"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="58"/>
     </row>
     <row r="40" spans="9:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I40" s="54"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="15"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="58"/>
     </row>
     <row r="41" spans="9:17" x14ac:dyDescent="0.4">
-      <c r="I41" s="34" t="s">
+      <c r="I41" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="15"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="58"/>
     </row>
     <row r="42" spans="9:17" x14ac:dyDescent="0.4">
-      <c r="I42" s="61"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="15"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="58"/>
     </row>
     <row r="43" spans="9:17" x14ac:dyDescent="0.4">
-      <c r="I43" s="45" t="s">
+      <c r="I43" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="15"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="58"/>
     </row>
     <row r="44" spans="9:17" x14ac:dyDescent="0.4">
-      <c r="I44" s="13"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="15"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="58"/>
     </row>
     <row r="45" spans="9:17" x14ac:dyDescent="0.4">
-      <c r="I45" s="13"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="15"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="58"/>
     </row>
     <row r="46" spans="9:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I46" s="54"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="55"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="56"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="61"/>
     </row>
     <row r="47" spans="9:17" x14ac:dyDescent="0.4">
       <c r="N47" s="3"/>
-      <c r="O47" s="99"/>
-      <c r="P47" s="99"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="9:17" x14ac:dyDescent="0.4">
       <c r="N48" s="3"/>
-      <c r="O48" s="99"/>
-      <c r="P48" s="99"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
       <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="14:17" x14ac:dyDescent="0.4">
       <c r="N49" s="3"/>
-      <c r="O49" s="99"/>
-      <c r="P49" s="99"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
       <c r="Q49" s="3"/>
     </row>
     <row r="50" spans="14:17" x14ac:dyDescent="0.4">
       <c r="N50" s="3"/>
-      <c r="O50" s="99"/>
-      <c r="P50" s="99"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
       <c r="Q50" s="3"/>
     </row>
     <row r="51" spans="14:17" x14ac:dyDescent="0.4">
       <c r="N51" s="3"/>
-      <c r="O51" s="99"/>
-      <c r="P51" s="99"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
       <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="14:17" x14ac:dyDescent="0.4">
-      <c r="O52" s="99"/>
-      <c r="P52" s="99"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
       <c r="Q52" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="A3:H6"/>
+    <mergeCell ref="I3:P4"/>
+    <mergeCell ref="I5:N6"/>
+    <mergeCell ref="O5:P46"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:N10"/>
+    <mergeCell ref="A8:H20"/>
+    <mergeCell ref="I11:N12"/>
+    <mergeCell ref="I13:N16"/>
     <mergeCell ref="I35:N36"/>
     <mergeCell ref="I37:N40"/>
     <mergeCell ref="I41:N42"/>
@@ -12398,16 +12941,6 @@
     <mergeCell ref="I25:N28"/>
     <mergeCell ref="I29:N30"/>
     <mergeCell ref="I31:N34"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="A3:H6"/>
-    <mergeCell ref="I3:P4"/>
-    <mergeCell ref="I5:N6"/>
-    <mergeCell ref="O5:P46"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:N10"/>
-    <mergeCell ref="A8:H20"/>
-    <mergeCell ref="I11:N12"/>
-    <mergeCell ref="I13:N16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12418,78 +12951,689 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="150" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="109" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="167" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="167" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="55"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="75"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="174" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="175" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="170"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="170"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B9" s="168"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="170"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="168"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="170"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="168"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="170"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="168"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="170"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="168"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="170"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="168"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="170"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="168"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="170"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B16" s="168"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="170"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B17" s="168"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="170"/>
+    </row>
+    <row r="18" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="171"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="173"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B19" s="167" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="167" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="55"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B20" s="73"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="75"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B21" s="176" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="169"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="174" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="169"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="170"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B22" s="168"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="169"/>
+      <c r="K22" s="170"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B23" s="168"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="169"/>
+      <c r="K23" s="170"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B24" s="168"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="169"/>
+      <c r="K24" s="170"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B25" s="168"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="169"/>
+      <c r="K25" s="170"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B26" s="168"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="169"/>
+      <c r="K26" s="170"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B27" s="168"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="169"/>
+      <c r="K27" s="170"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B28" s="168"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="170"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B29" s="168"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="169"/>
+      <c r="K29" s="170"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B30" s="168"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="169"/>
+      <c r="K30" s="170"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B31" s="168"/>
+      <c r="C31" s="169"/>
+      <c r="D31" s="169"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="169"/>
+      <c r="K31" s="170"/>
+    </row>
+    <row r="32" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="171"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="172"/>
+      <c r="K32" s="173"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B33" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="167" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="55"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="75"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B35" s="174" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="169"/>
+      <c r="D35" s="169"/>
+      <c r="E35" s="169"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="176" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" s="169"/>
+      <c r="I35" s="169"/>
+      <c r="J35" s="169"/>
+      <c r="K35" s="170"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B36" s="168"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="169"/>
+      <c r="I36" s="169"/>
+      <c r="J36" s="169"/>
+      <c r="K36" s="170"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B37" s="168"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="168"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="169"/>
+      <c r="K37" s="170"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B38" s="168"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="169"/>
+      <c r="E38" s="169"/>
+      <c r="F38" s="170"/>
+      <c r="G38" s="168"/>
+      <c r="H38" s="169"/>
+      <c r="I38" s="169"/>
+      <c r="J38" s="169"/>
+      <c r="K38" s="170"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B39" s="168"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="169"/>
+      <c r="E39" s="169"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="168"/>
+      <c r="H39" s="169"/>
+      <c r="I39" s="169"/>
+      <c r="J39" s="169"/>
+      <c r="K39" s="170"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B40" s="168"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="169"/>
+      <c r="E40" s="169"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="168"/>
+      <c r="H40" s="169"/>
+      <c r="I40" s="169"/>
+      <c r="J40" s="169"/>
+      <c r="K40" s="170"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B41" s="168"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="169"/>
+      <c r="E41" s="169"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="168"/>
+      <c r="H41" s="169"/>
+      <c r="I41" s="169"/>
+      <c r="J41" s="169"/>
+      <c r="K41" s="170"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B42" s="168"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="169"/>
+      <c r="E42" s="169"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="169"/>
+      <c r="I42" s="169"/>
+      <c r="J42" s="169"/>
+      <c r="K42" s="170"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B43" s="168"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="169"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="170"/>
+      <c r="G43" s="168"/>
+      <c r="H43" s="169"/>
+      <c r="I43" s="169"/>
+      <c r="J43" s="169"/>
+      <c r="K43" s="170"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B44" s="168"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="170"/>
+      <c r="G44" s="168"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="170"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B45" s="168"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="168"/>
+      <c r="H45" s="169"/>
+      <c r="I45" s="169"/>
+      <c r="J45" s="169"/>
+      <c r="K45" s="170"/>
+    </row>
+    <row r="46" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="171"/>
+      <c r="C46" s="172"/>
+      <c r="D46" s="172"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="172"/>
+      <c r="I46" s="172"/>
+      <c r="J46" s="172"/>
+      <c r="K46" s="173"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B47" s="167" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="55"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B48" s="73"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="75"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B49" s="176" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>142</v>
-      </c>
+      <c r="C49" s="169"/>
+      <c r="D49" s="169"/>
+      <c r="E49" s="169"/>
+      <c r="F49" s="170"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B50" s="168"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="169"/>
+      <c r="E50" s="169"/>
+      <c r="F50" s="170"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B51" s="168"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="169"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="170"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B52" s="168"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="169"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="170"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B53" s="168"/>
+      <c r="C53" s="169"/>
+      <c r="D53" s="169"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="170"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B54" s="168"/>
+      <c r="C54" s="169"/>
+      <c r="D54" s="169"/>
+      <c r="E54" s="169"/>
+      <c r="F54" s="170"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B55" s="168"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="169"/>
+      <c r="F55" s="170"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B56" s="168"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="169"/>
+      <c r="E56" s="169"/>
+      <c r="F56" s="170"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B57" s="168"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="169"/>
+      <c r="F57" s="170"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B58" s="168"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
+      <c r="E58" s="169"/>
+      <c r="F58" s="170"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B59" s="168"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
+      <c r="E59" s="169"/>
+      <c r="F59" s="170"/>
+    </row>
+    <row r="60" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="171"/>
+      <c r="C60" s="172"/>
+      <c r="D60" s="172"/>
+      <c r="E60" s="172"/>
+      <c r="F60" s="173"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="15">
+    <mergeCell ref="B35:F46"/>
+    <mergeCell ref="G33:K34"/>
+    <mergeCell ref="G35:K46"/>
+    <mergeCell ref="B47:F48"/>
+    <mergeCell ref="B49:F60"/>
+    <mergeCell ref="B19:F20"/>
+    <mergeCell ref="B21:F32"/>
+    <mergeCell ref="G19:K20"/>
+    <mergeCell ref="G21:K32"/>
+    <mergeCell ref="B33:F34"/>
     <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="B7:F18"/>
+    <mergeCell ref="G5:K6"/>
+    <mergeCell ref="G7:K18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12506,35 +13650,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="37" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="36" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="129"/>
-      <c r="B3" s="142" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="132"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="129"/>
-      <c r="B4" s="129"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -12542,11 +13686,11 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="128"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="129"/>
-      <c r="B5" s="129"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -12554,11 +13698,11 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="128"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="129"/>
-      <c r="B6" s="129"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -12566,11 +13710,11 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="128"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="129"/>
-      <c r="B7" s="141" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="34" t="s">
         <v>115</v>
       </c>
       <c r="C7" s="3"/>
@@ -12580,11 +13724,11 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="128"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="129"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -12592,11 +13736,11 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="128"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="129"/>
-      <c r="B9" s="139"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -12604,11 +13748,11 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="128"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="129"/>
-      <c r="B10" s="139"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -12616,11 +13760,11 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="128"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="129"/>
-      <c r="B11" s="139"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -12628,11 +13772,11 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="128"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="127"/>
-      <c r="B12" s="139"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -12640,13 +13784,13 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="128"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="139"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -12654,10 +13798,10 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="128"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="139"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -12665,10 +13809,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="128"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="139"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -12676,10 +13820,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="128"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="139"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -12687,10 +13831,10 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="128"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="139"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -12698,20 +13842,20 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="128"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="125"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -12733,17 +13877,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="38" t="s">
         <v>122</v>
       </c>
     </row>
@@ -12773,769 +13917,736 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="22" t="s">
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="24"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="105"/>
     </row>
     <row r="4" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="33"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="108"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="34" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="34" t="s">
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="34" t="s">
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="34" t="s">
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="34" t="s">
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="38"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="77"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="44"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="80"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="45" t="s">
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="45" t="s">
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="45" t="s">
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="45" t="s">
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="47"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="64"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="15"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="58"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="15"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="58"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="56"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="61"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="34" t="s">
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="34" t="s">
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="34" t="s">
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="34" t="s">
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="34" t="s">
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="38"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="77"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="44"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="80"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="45" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="45" t="s">
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="45" t="s">
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="45" t="s">
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="45" t="s">
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="47"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="64"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="15"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="58"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="15"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="58"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="56"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="61"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="34" t="s">
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="34" t="s">
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="34" t="s">
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="12"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="55"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="63"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="75"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="45" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="45" t="s">
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="45" t="s">
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="47"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="64"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="15"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="58"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="15"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="58"/>
     </row>
     <row r="22" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="56"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="61"/>
     </row>
     <row r="24" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="68" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="70"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="49"/>
     </row>
     <row r="26" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="71"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="76"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="52"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="77" t="s">
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="12"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="55"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="15"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="58"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="15"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="58"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="15"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="58"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="15"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="58"/>
     </row>
     <row r="32" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="54"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="56"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A25:F26"/>
-    <mergeCell ref="G25:L26"/>
-    <mergeCell ref="A27:F32"/>
-    <mergeCell ref="G27:L32"/>
-    <mergeCell ref="A19:D22"/>
-    <mergeCell ref="E19:H22"/>
-    <mergeCell ref="I19:L22"/>
-    <mergeCell ref="M19:P22"/>
-    <mergeCell ref="Q19:T22"/>
-    <mergeCell ref="U19:X22"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="I17:L18"/>
-    <mergeCell ref="M17:P18"/>
-    <mergeCell ref="Q17:T18"/>
-    <mergeCell ref="U17:X18"/>
-    <mergeCell ref="A13:D16"/>
-    <mergeCell ref="E13:H16"/>
-    <mergeCell ref="I13:L16"/>
-    <mergeCell ref="M13:P16"/>
-    <mergeCell ref="Q13:T16"/>
-    <mergeCell ref="U13:X16"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="E11:H12"/>
-    <mergeCell ref="I11:L12"/>
-    <mergeCell ref="M11:P12"/>
-    <mergeCell ref="Q11:T12"/>
-    <mergeCell ref="U11:X12"/>
-    <mergeCell ref="A7:D10"/>
-    <mergeCell ref="E7:H10"/>
-    <mergeCell ref="I7:L10"/>
-    <mergeCell ref="M7:P10"/>
-    <mergeCell ref="Q7:T10"/>
     <mergeCell ref="U7:X10"/>
     <mergeCell ref="B1:G2"/>
     <mergeCell ref="A3:H4"/>
@@ -13547,6 +14658,39 @@
     <mergeCell ref="M5:P6"/>
     <mergeCell ref="Q5:T6"/>
     <mergeCell ref="U5:X6"/>
+    <mergeCell ref="A7:D10"/>
+    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="I7:L10"/>
+    <mergeCell ref="M7:P10"/>
+    <mergeCell ref="Q7:T10"/>
+    <mergeCell ref="U13:X16"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="E11:H12"/>
+    <mergeCell ref="I11:L12"/>
+    <mergeCell ref="M11:P12"/>
+    <mergeCell ref="Q11:T12"/>
+    <mergeCell ref="U11:X12"/>
+    <mergeCell ref="A13:D16"/>
+    <mergeCell ref="E13:H16"/>
+    <mergeCell ref="I13:L16"/>
+    <mergeCell ref="M13:P16"/>
+    <mergeCell ref="Q13:T16"/>
+    <mergeCell ref="M19:P22"/>
+    <mergeCell ref="Q19:T22"/>
+    <mergeCell ref="U19:X22"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="I17:L18"/>
+    <mergeCell ref="M17:P18"/>
+    <mergeCell ref="Q17:T18"/>
+    <mergeCell ref="U17:X18"/>
+    <mergeCell ref="A25:F26"/>
+    <mergeCell ref="G25:L26"/>
+    <mergeCell ref="A27:F32"/>
+    <mergeCell ref="G27:L32"/>
+    <mergeCell ref="A19:D22"/>
+    <mergeCell ref="E19:H22"/>
+    <mergeCell ref="I19:L22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13567,34 +14711,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="120"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="17" t="s">
         <v>108</v>
       </c>
     </row>
@@ -13617,285 +14761,285 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="164"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="113"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="163"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="161"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="116"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="160"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="158"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="153"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="151"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="122"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B8" s="156"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="154"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="126"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B9" s="156"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="154"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="126"/>
     </row>
     <row r="10" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="153"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="151"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="122"/>
     </row>
     <row r="11" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="H12" s="150" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="H12" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
-      <c r="N12" s="150" t="s">
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
+      <c r="N12" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="12"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="58"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="58"/>
     </row>
     <row r="14" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="15"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B15" s="149" t="s">
+      <c r="B15" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="H15" s="149" t="s">
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="55"/>
+      <c r="H15" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="N15" s="148" t="s">
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="55"/>
+      <c r="N15" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="55"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="15"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="58"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="58"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="58"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="58"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="15"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="58"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="58"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="15"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="58"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="58"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="58"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="58"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="15"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="58"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="58"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="15"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="15"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="58"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="58"/>
     </row>
     <row r="23" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="56"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="61"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13924,326 +15068,326 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="79"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="128"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="131"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="86" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="140"/>
     </row>
     <row r="4" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="89"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="94"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="143"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="77" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="55"/>
     </row>
     <row r="6" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="54"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="56"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="61"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="34" t="s">
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="34" t="s">
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="34" t="s">
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="38"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="77"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A8" s="95"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="97"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="146"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="45" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="45" t="s">
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="45" t="s">
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="47"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="64"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="98"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="99"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="58"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="99"/>
-      <c r="AH11" s="99"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="58"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
     </row>
     <row r="12" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="99"/>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="99"/>
-      <c r="AG12" s="99"/>
-      <c r="AH12" s="99"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="58"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
     </row>
     <row r="13" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="99"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="99"/>
-      <c r="AH13" s="99"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="58"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
     </row>
     <row r="14" spans="1:34" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="56"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="61"/>
     </row>
     <row r="15" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -14281,262 +15425,262 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="79"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="128"/>
     </row>
     <row r="2" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="131"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="103" t="s">
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="105"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="155"/>
     </row>
     <row r="4" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="106"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="111"/>
+      <c r="A4" s="150"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="158"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="77" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="55"/>
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="54"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="56"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="61"/>
     </row>
     <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="34" t="s">
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="34" t="s">
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="34" t="s">
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="38"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="77"/>
     </row>
     <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="44"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="80"/>
     </row>
     <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="45" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="45" t="s">
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="45" t="s">
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="47"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="64"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="58"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="58"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="58"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="58"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="56"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="61"/>
     </row>
     <row r="15" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -14569,757 +15713,736 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD29"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A1" s="150" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-    </row>
-    <row r="4" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B5" s="166" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="166" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="12"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="15"/>
-    </row>
-    <row r="7" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="15"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B8" s="60"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="12"/>
-      <c r="AD8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="15"/>
-      <c r="AD9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="15"/>
-      <c r="AD10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="15"/>
-      <c r="AD11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="15"/>
-      <c r="AD12" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A1" s="109" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="15"/>
-      <c r="AD13" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+    </row>
+    <row r="3" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B5" s="159" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="15"/>
-      <c r="AD14" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="159" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="15"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="15"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="55"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58"/>
+    </row>
+    <row r="7" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="58"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B8" s="72"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="55"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="58"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="58"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="58"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="58"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="58"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="58"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="58"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="58"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="15"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="58"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="15"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="58"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="15"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="58"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="15"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="58"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="15"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="58"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="15"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="58"/>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="15"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="58"/>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="15"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="58"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="15"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="58"/>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="15"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="58"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="15"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="15"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="58"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="58"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="15"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="15"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="58"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="58"/>
     </row>
     <row r="29" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="56"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="55"/>
-      <c r="AB29" s="56"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -15338,43 +16461,193 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="150" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-    </row>
-    <row r="21" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O21" s="167"/>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A1" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+    </row>
+    <row r="3" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="L5" s="178"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="178" t="s">
+        <v>150</v>
+      </c>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="179"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="L6" s="180"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="181"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="L7" s="178"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="178" t="s">
+        <v>151</v>
+      </c>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="179"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="L8" s="182"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="182"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="183"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="L9" s="182"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="182"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="183"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="L10" s="180"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="181"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="L11" s="178"/>
+      <c r="M11" s="179"/>
+      <c r="N11" s="178" t="s">
+        <v>137</v>
+      </c>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="179"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="L12" s="180"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="180"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="181"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="L13" s="178"/>
+      <c r="M13" s="179"/>
+      <c r="N13" s="178" t="s">
+        <v>152</v>
+      </c>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="179"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="L14" s="180"/>
+      <c r="M14" s="181"/>
+      <c r="N14" s="180"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="181"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="L15" s="178"/>
+      <c r="M15" s="179"/>
+      <c r="N15" s="178" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="179"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="L16" s="182"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="182"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="183"/>
+    </row>
+    <row r="17" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="L17" s="180"/>
+      <c r="M17" s="181"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="181"/>
+    </row>
+    <row r="21" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="O21" s="177"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="N11:S12"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="N13:S14"/>
+    <mergeCell ref="L15:M17"/>
+    <mergeCell ref="N15:S17"/>
     <mergeCell ref="A1:E3"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="N5:S6"/>
+    <mergeCell ref="L7:M10"/>
+    <mergeCell ref="N7:S10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15393,30 +16666,30 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
